--- a/Project_study/싸피티아이 캐릭터 설정.xlsx
+++ b/Project_study/싸피티아이 캐릭터 설정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongg\OneDrive\바탕 화면\HTML_project\Project_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F5F8AF-7CE2-47EF-A26A-0B162FE83EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D23431-473E-40D7-8F30-E45552074E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35E31B21-D06F-46C5-80D7-52A79225592D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35E31B21-D06F-46C5-80D7-52A79225592D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,66 @@
   </si>
   <si>
     <t>김예운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 메이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올라가는 반의 텐션의 중심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술 먹자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의적인 이유로 회식을 시작한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 유망주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직은 부족하지만 성장 가능성이 무한하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지각러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 지각의 이유와 날카로운 조퇴각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 문항 마다 '매우 그렇지 않음' 부터 '매우 그렇다' 까지의 대답에 0~ 100까지의 점수를 할당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 리스트에 코딩, 외향성, 열정, 리더십, 창의성 점수의 평균을 내고, 그 점수에 따라 항목에 1과 0 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 코드에 따른 결과를 딕셔너리로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1과 0을 문자열로 합치고 이걸 키로 딕셔너리의 밸류를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문항에 코딩, 외향성, 열정, 리더십, 창의성 코드 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 문항 코드의 질문에서 점수 차가 너무 심하게 나면 점수 일부만 적용, 혹은 다시하도록 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지에 캐릭터를 두고, 설문을 진행할 수록 점점 캐릭터의 복장이 결과에 가깝도록 변화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,9 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -248,7 +305,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,19 +648,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED181B3-6397-4985-906B-6F652D6B9762}">
-  <dimension ref="B4:J36"/>
+  <dimension ref="B4:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.296875" customWidth="1"/>
-    <col min="9" max="9" width="29.8984375" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -616,8 +679,20 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -639,8 +714,20 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -660,98 +747,156 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -771,102 +916,132 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
@@ -882,98 +1057,156 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>3</v>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
@@ -993,121 +1226,145 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>4</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
@@ -1128,97 +1385,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>28</v>
       </c>
@@ -1239,99 +1496,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>29</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>30</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>31</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>6</v>
       </c>
       <c r="J35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K9:T9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
